--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58103,6 +58103,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2126">
+      <c r="A2126" s="1" t="n">
+        <v>45447.2916666667</v>
+      </c>
+      <c r="B2126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2126" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2126" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2126" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2126" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58129,6 +58129,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2127">
+      <c r="A2127" s="1" t="n">
+        <v>45448.2916666667</v>
+      </c>
+      <c r="B2127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2127" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2127" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2127" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2127" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58155,6 +58155,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" s="1" t="n">
+        <v>45449.2916666667</v>
+      </c>
+      <c r="B2128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2128" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2128" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2128" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2128" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58181,6 +58181,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" s="1" t="n">
+        <v>45450.2916666667</v>
+      </c>
+      <c r="B2129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2129" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2129" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2129" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2129" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58207,6 +58207,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" s="1" t="n">
+        <v>45453.2916666667</v>
+      </c>
+      <c r="B2130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2130" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2130" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2130" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2130" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58233,6 +58233,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" s="1" t="n">
+        <v>45454.2916666667</v>
+      </c>
+      <c r="B2131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2131" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2131" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2131" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2131" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58259,6 +58259,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2132" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2132" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2132" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="1" t="n">
+        <v>45456.2916666667</v>
+      </c>
+      <c r="B2133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2133" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2133" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2133" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2133" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58311,6 +58311,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" s="1" t="n">
+        <v>45457.2916666667</v>
+      </c>
+      <c r="B2134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2134" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2134" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2134" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2134" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58337,6 +58337,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B2135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2135" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2135" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2135" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2135" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58363,6 +58363,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" s="1" t="n">
+        <v>45461.2916666667</v>
+      </c>
+      <c r="B2136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2136" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2136" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2136" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2136" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58389,6 +58389,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" s="1" t="n">
+        <v>45462.2916666667</v>
+      </c>
+      <c r="B2137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2137" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2137" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2137" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2137" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58415,6 +58415,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" s="1" t="n">
+        <v>45463.2916666667</v>
+      </c>
+      <c r="B2138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2138" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2138" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2138" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2138" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58441,6 +58441,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" s="1" t="n">
+        <v>45464.2916666667</v>
+      </c>
+      <c r="B2139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2139" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2139" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2139" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58467,6 +58467,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" s="1" t="n">
+        <v>45467.2916666667</v>
+      </c>
+      <c r="B2140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2140" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2140" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2140" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="1" t="n">
+        <v>45468.2916666667</v>
+      </c>
+      <c r="B2141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2141" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2141" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2141" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58519,6 +58519,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" s="1" t="n">
+        <v>45469.2916666667</v>
+      </c>
+      <c r="B2142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2142" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2142" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2142" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2142" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58545,6 +58545,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" s="1" t="n">
+        <v>45470.2916666667</v>
+      </c>
+      <c r="B2143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2143" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58571,6 +58571,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45471.2916666667</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58597,6 +58597,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45474.2916666667</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58623,6 +58623,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45475.2916666667</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58649,6 +58649,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45476.2916666667</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58675,6 +58675,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45477.2916666667</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58701,6 +58701,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45478.2916666667</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58727,6 +58727,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45481.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58753,6 +58753,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45482.2916666667</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58779,6 +58779,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45483.2916666667</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58805,6 +58805,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45484.2916666667</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58831,6 +58831,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45485.2916666667</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58857,6 +58857,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45488.2916666667</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58883,6 +58883,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45489.2916666667</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58909,6 +58909,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45490.2916666667</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58935,6 +58935,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45491.2916666667</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58961,6 +58961,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45492.2916666667</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -58987,6 +58987,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45495.2916666667</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59013,6 +59013,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45496.2916666667</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59039,6 +59039,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45497.2916666667</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59065,6 +59065,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45498.2916666667</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59091,6 +59091,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45499.2916666667</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59117,6 +59117,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45502.2916666667</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59143,6 +59143,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45503.2916666667</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59169,6 +59169,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45504.2916666667</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59195,6 +59195,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45505.2916666667</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59221,6 +59221,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45506.2916666667</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59247,6 +59247,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45509.2916666667</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59299,6 +59299,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45511.2916666667</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59325,6 +59325,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45512.2916666667</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59351,6 +59351,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45513.2916666667</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59377,6 +59377,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45516.2916666667</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59403,6 +59403,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45517.2916666667</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59429,6 +59429,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45518.2916666667</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59455,6 +59455,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45520.2916666667</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59481,6 +59481,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45523.2916666667</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59507,6 +59507,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45524.2916666667</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59533,6 +59533,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45525.2916666667</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59559,6 +59559,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45526.2916666667</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59585,6 +59585,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45527.2916666667</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59611,6 +59611,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45530.2916666667</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59637,6 +59637,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45531.2916666667</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59663,6 +59663,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45532.2916666667</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -2521,7 +2521,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -2559,7 +2559,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -59689,6 +59689,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45533.2916666667</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59715,6 +59715,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45534.2916666667</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59741,6 +59741,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45537.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59767,6 +59767,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45538.2916666667</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59793,6 +59793,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45540.2916666667</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59819,6 +59819,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45541.2916666667</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2192" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59845,6 +59845,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2193">
+      <c r="A2193" s="1" t="n">
+        <v>45544.2916666667</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2193" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59871,6 +59871,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" s="1" t="n">
+        <v>45545.2916666667</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2194" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59897,6 +59897,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" s="1" t="n">
+        <v>45546.2916666667</v>
+      </c>
+      <c r="B2195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2195" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2195" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59923,6 +59923,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" s="1" t="n">
+        <v>45547.2916666667</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59949,6 +59949,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" s="1" t="n">
+        <v>45548.2916666667</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2197" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -59975,6 +59975,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" s="1" t="n">
+        <v>45551.2916666667</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2198" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60001,6 +60001,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" s="1" t="n">
+        <v>45552.2916666667</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2199" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60027,6 +60027,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" s="1" t="n">
+        <v>45553.2916666667</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2200" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60053,6 +60053,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" s="1" t="n">
+        <v>45554.2916666667</v>
+      </c>
+      <c r="B2201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2201" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60079,6 +60079,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2202">
+      <c r="A2202" s="1" t="n">
+        <v>45555.2916666667</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2202" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60105,6 +60105,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2203">
+      <c r="A2203" s="1" t="n">
+        <v>45558.2916666667</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2203" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60131,6 +60131,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>45559.2916666667</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2204" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60157,6 +60157,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2205">
+      <c r="A2205" s="1" t="n">
+        <v>45560.2916666667</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2205" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60183,6 +60183,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2206">
+      <c r="A2206" s="1" t="n">
+        <v>45561.2916666667</v>
+      </c>
+      <c r="B2206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2206" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60209,6 +60209,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>45562.2916666667</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2207" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60235,6 +60235,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" s="1" t="n">
+        <v>45565.2916666667</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2208" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60261,6 +60261,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2209">
+      <c r="A2209" s="1" t="n">
+        <v>45566.2916666667</v>
+      </c>
+      <c r="B2209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2209" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2209" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2209" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60287,6 +60287,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2210">
+      <c r="A2210" s="1" t="n">
+        <v>45567.2916666667</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2210" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60313,6 +60313,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2211">
+      <c r="A2211" s="1" t="n">
+        <v>45568.2916666667</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2211" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60339,6 +60339,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" s="1" t="n">
+        <v>45569.2916666667</v>
+      </c>
+      <c r="B2212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2212" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60365,6 +60365,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" s="1" t="n">
+        <v>45572.2916666667</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2213" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60391,6 +60391,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2214">
+      <c r="A2214" s="1" t="n">
+        <v>45573.2916666667</v>
+      </c>
+      <c r="B2214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2214" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2214" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2214" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60417,6 +60417,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2215">
+      <c r="A2215" s="1" t="n">
+        <v>45574.2916666667</v>
+      </c>
+      <c r="B2215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2215" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2215" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2215" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60443,6 +60443,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2216">
+      <c r="A2216" s="1" t="n">
+        <v>45575.2916666667</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2216" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60469,6 +60469,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2217">
+      <c r="A2217" s="1" t="n">
+        <v>45576.2916666667</v>
+      </c>
+      <c r="B2217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2217" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2217" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2217" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60495,6 +60495,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2218">
+      <c r="A2218" s="1" t="n">
+        <v>45579.2916666667</v>
+      </c>
+      <c r="B2218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2218" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2218" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2218" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60521,6 +60521,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2219">
+      <c r="A2219" s="1" t="n">
+        <v>45580.2916666667</v>
+      </c>
+      <c r="B2219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2219" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2219" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2219" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60547,6 +60547,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" s="1" t="n">
+        <v>45581.2916666667</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2220" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60573,6 +60573,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2221">
+      <c r="A2221" s="1" t="n">
+        <v>45582.2916666667</v>
+      </c>
+      <c r="B2221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2221" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2221" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60599,6 +60599,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2222">
+      <c r="A2222" s="1" t="n">
+        <v>45583.2916666667</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2222" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60625,6 +60625,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" s="1" t="n">
+        <v>45586.2916666667</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2223" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60651,6 +60651,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" s="1" t="n">
+        <v>45587.2916666667</v>
+      </c>
+      <c r="B2224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2224" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2224" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60677,6 +60677,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" s="1" t="n">
+        <v>45588.2916666667</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2225" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2225" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60703,6 +60703,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" s="1" t="n">
+        <v>45589.2916666667</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2226" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2226" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60729,6 +60729,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" s="1" t="n">
+        <v>45590.2916666667</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2227" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2227" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60755,6 +60755,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="n">
+        <v>45593.3333333333</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2228" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60781,6 +60781,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" s="1" t="n">
+        <v>45594.3333333333</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2229" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60807,6 +60807,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" s="1" t="n">
+        <v>45595.3333333333</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2230" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2230" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60833,6 +60833,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" s="1" t="n">
+        <v>45596.3333333333</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="1" t="n">
+        <v>45597.3333333333</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2232" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2232" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60885,6 +60885,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" s="1" t="n">
+        <v>45600.3333333333</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2233" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60911,6 +60911,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" s="1" t="n">
+        <v>45601.3333333333</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60937,6 +60937,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" s="1" t="n">
+        <v>45602.3333333333</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2235" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60963,6 +60963,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" s="1" t="n">
+        <v>45603.3333333333</v>
+      </c>
+      <c r="B2236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2236" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2236" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -60989,6 +60989,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" s="1" t="n">
+        <v>45604.3333333333</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61015,6 +61015,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" s="1" t="n">
+        <v>45607.3333333333</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2238" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2238" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61041,6 +61041,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" s="1" t="n">
+        <v>45608.3333333333</v>
+      </c>
+      <c r="B2239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2239" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2239" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2239" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61067,6 +61067,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" s="1" t="n">
+        <v>45609.3333333333</v>
+      </c>
+      <c r="B2240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2240" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2240" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2240" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61093,6 +61093,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" s="1" t="n">
+        <v>45610.3333333333</v>
+      </c>
+      <c r="B2241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2241" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2241" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2241" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61119,6 +61119,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" s="1" t="n">
+        <v>45611.3333333333</v>
+      </c>
+      <c r="B2242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2242" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2242" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61145,6 +61145,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2243">
+      <c r="A2243" s="1" t="n">
+        <v>45614.3333333333</v>
+      </c>
+      <c r="B2243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2243" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2243" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61171,6 +61171,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2244">
+      <c r="A2244" s="1" t="n">
+        <v>45615.3333333333</v>
+      </c>
+      <c r="B2244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2244" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2244" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2244" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2244" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61197,6 +61197,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" s="1" t="n">
+        <v>45616.3333333333</v>
+      </c>
+      <c r="B2245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2245" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2245" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2245" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61223,6 +61223,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" s="1" t="n">
+        <v>45617.3333333333</v>
+      </c>
+      <c r="B2246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2246" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2246" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/ALW.MI.xlsx
+++ b/data/ALW.MI.xlsx
@@ -61249,6 +61249,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2247">
+      <c r="A2247" s="1" t="n">
+        <v>45618.3333333333</v>
+      </c>
+      <c r="B2247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2247" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.229499995708466</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2247" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
